--- a/sofaplayer/Premier_League/Manchester United_stats.xlsx
+++ b/sofaplayer/Premier_League/Manchester United_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL26"/>
+  <dimension ref="A1:DL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5656,23 +5656,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tyler Fletcher</t>
+          <t>Noussair Mazraoui</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1402850</v>
+        <v>847030</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6.925</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>489</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5680,12 +5680,14 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0.0513</v>
+      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -5727,268 +5729,268 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.00537702</v>
+        <v>0.24699844</v>
       </c>
       <c r="AB15" t="n">
+        <v>411</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>241</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>87.636363636364</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>275</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>104</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>137</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>83</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>57.692307692308</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO15" t="n">
         <v>7</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AP15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>31</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>62</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>67.56756756756801</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>46.153846153846</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>56</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>23</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>10</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>19</v>
+      </c>
+      <c r="CV15" t="n">
         <v>7</v>
       </c>
-      <c r="AF15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH15" t="n">
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>8</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>53.333333333333</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>116</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>159</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI15" t="n">
         <v>2</v>
       </c>
-      <c r="AI15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>2</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>5</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ15" t="n">
-        <v>2660352</v>
+        <v>2190460</v>
       </c>
       <c r="DK15" t="inlineStr">
         <is>
@@ -6010,143 +6012,143 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Noussair Mazraoui</t>
+          <t>Lisandro Martínez</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>847030</v>
+        <v>859999</v>
       </c>
       <c r="E16" t="n">
-        <v>6.925</v>
+        <v>7.0714285714286</v>
       </c>
       <c r="F16" t="n">
+        <v>14</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>911</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.50183514</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>833</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>638</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>90.24045261669001</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>707</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>340</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>298</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41.428571428571</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP16" t="n">
         <v>12</v>
       </c>
-      <c r="G16" t="n">
-        <v>6</v>
-      </c>
-      <c r="H16" t="n">
-        <v>489</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.0513</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.24699844</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>411</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>241</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>87.636363636364</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>275</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>104</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>137</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>83</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>57.692307692308</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR16" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="AS16" t="n">
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AU16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -6155,43 +6157,43 @@
         <v>0</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AZ16" t="n">
-        <v>50</v>
+        <v>84.615384615385</v>
       </c>
       <c r="BA16" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="BB16" t="n">
-        <v>62</v>
+        <v>66.037735849057</v>
       </c>
       <c r="BC16" t="n">
         <v>25</v>
       </c>
       <c r="BD16" t="n">
-        <v>67.56756756756801</v>
+        <v>64.102564102564</v>
       </c>
       <c r="BE16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BF16" t="n">
-        <v>46.153846153846</v>
+        <v>71.428571428571</v>
       </c>
       <c r="BG16" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="BH16" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BJ16" t="n">
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6200,31 +6202,31 @@
         <v>0</v>
       </c>
       <c r="BN16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BO16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>83.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="BR16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BS16" t="n">
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -6236,25 +6238,25 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CB16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC16" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="CD16" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="CE16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
         <v>0</v>
@@ -6266,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="CK16" t="n">
         <v>1</v>
@@ -6290,61 +6292,61 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>13</v>
+      </c>
+      <c r="CT16" t="n">
         <v>2</v>
       </c>
-      <c r="CS16" t="n">
-        <v>8</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>10</v>
-      </c>
       <c r="CU16" t="n">
+        <v>18</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>70</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>7</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>58.333333333333</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>353</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>354</v>
+      </c>
+      <c r="DH16" t="n">
         <v>19</v>
       </c>
-      <c r="CV16" t="n">
+      <c r="DI16" t="n">
         <v>7</v>
       </c>
-      <c r="CW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>26</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>53.333333333333</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>116</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>159</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>1</v>
-      </c>
-      <c r="DI16" t="n">
-        <v>2</v>
-      </c>
       <c r="DJ16" t="n">
-        <v>2190460</v>
+        <v>2480957</v>
       </c>
       <c r="DK16" t="inlineStr">
         <is>
@@ -6366,341 +6368,341 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lisandro Martínez</t>
+          <t>Matthijs de Ligt</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>859999</v>
+        <v>803031</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0714285714286</v>
+        <v>6.9538461538462</v>
       </c>
       <c r="F17" t="n">
+        <v>13</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1170</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.4559</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>11</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9.090909090909101</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.76599626</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>791</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>537</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>87.745098039216</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>612</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>396</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>141</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>47.727272727273</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>68</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>74</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>62.71186440678</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>64.864864864865</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>50</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>61.728395061728</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>89</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>75</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>28</v>
+      </c>
+      <c r="CD17" t="n">
         <v>14</v>
       </c>
-      <c r="G17" t="n">
-        <v>9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>911</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.50183514</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>833</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>638</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>90.24045261669001</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>707</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>340</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>298</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>92</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41.428571428571</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>52</v>
-      </c>
-      <c r="AS17" t="n">
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK17" t="n">
         <v>2</v>
       </c>
-      <c r="AT17" t="n">
-        <v>46</v>
-      </c>
-      <c r="AU17" t="n">
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS17" t="n">
         <v>2</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>84.615384615385</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>35</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>66.037735849057</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>25</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>64.102564102564</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>81</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI17" t="n">
+      <c r="CT17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>44</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>31</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>44</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>68.421052631579</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>425</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>187</v>
+      </c>
+      <c r="DH17" t="n">
         <v>2</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>11</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>99</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>14</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>69</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>52</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>27</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>13</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>18</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>4</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>70</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>7</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>353</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>354</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>19</v>
       </c>
       <c r="DI17" t="n">
         <v>7</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2480957</v>
+        <v>2145627</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6722,47 +6724,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Matthijs de Ligt</t>
+          <t>Harry Maguire</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>803031</v>
+        <v>149380</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9538461538462</v>
+        <v>6.7923076923077</v>
       </c>
       <c r="F18" t="n">
         <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
-        <v>1170</v>
+        <v>784</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4559</v>
+        <v>0.7358</v>
       </c>
       <c r="L18" t="n">
-        <v>1170</v>
+        <v>784</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>9.090909090909101</v>
+        <v>12.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6789,154 +6791,154 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.76599626</v>
+        <v>0.07180597</v>
       </c>
       <c r="AB18" t="n">
-        <v>791</v>
+        <v>468</v>
       </c>
       <c r="AC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>324</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>375</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>220</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>104</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>25.641025641026</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>43</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>70.49180327868901</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>27</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>72.972972972973</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>56</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
         <v>2</v>
       </c>
-      <c r="AD18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>537</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>87.745098039216</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>612</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>396</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>141</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>47.727272727273</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>68</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>74</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>62.71186440678</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>24</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>64.864864864865</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>50</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>61.728395061728</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>89</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>1</v>
-      </c>
       <c r="BO18" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>90.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="BR18" t="n">
         <v>13</v>
       </c>
       <c r="BS18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6948,19 +6950,19 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="CA18" t="n">
         <v>0</v>
       </c>
       <c r="CB18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC18" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="CD18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,43 +6980,43 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU18" t="n">
         <v>18</v>
       </c>
-      <c r="CK18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS18" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT18" t="n">
-        <v>5</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>44</v>
-      </c>
       <c r="CV18" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7026,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="DA18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="DB18" t="n">
-        <v>68.421052631579</v>
+        <v>77.777777777778</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>425</v>
+        <v>232</v>
       </c>
       <c r="DG18" t="n">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="DH18" t="n">
         <v>2</v>
       </c>
       <c r="DI18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2145627</v>
+        <v>2145599</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7078,47 +7080,47 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Harry Maguire</t>
+          <t>Leny Yoro</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>149380</v>
+        <v>1153315</v>
       </c>
       <c r="E19" t="n">
-        <v>6.7923076923077</v>
+        <v>6.6045454545455</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>784</v>
+        <v>1174</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7358</v>
+        <v>0.6787</v>
       </c>
       <c r="L19" t="n">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -7130,13 +7132,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -7145,46 +7147,46 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.07180597</v>
+        <v>0.29046615</v>
       </c>
       <c r="AB19" t="n">
-        <v>468</v>
+        <v>838</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>324</v>
+        <v>593</v>
       </c>
       <c r="AF19" t="n">
-        <v>86.40000000000001</v>
+        <v>88.244047619048</v>
       </c>
       <c r="AG19" t="n">
-        <v>375</v>
+        <v>672</v>
       </c>
       <c r="AH19" t="n">
-        <v>220</v>
+        <v>346</v>
       </c>
       <c r="AI19" t="n">
-        <v>104</v>
+        <v>247</v>
       </c>
       <c r="AJ19" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>25.641025641026</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
         <v>1</v>
@@ -7193,184 +7195,184 @@
         <v>50</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>52</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>57</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>57</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>27</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>52.941176470588</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>30</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>61.224489795918</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>101</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
         <v>24</v>
       </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>43</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>70.49180327868901</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>16</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>27</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>72.972972972973</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>56</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>22</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>79</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>35</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>15</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>21</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS19" t="n">
         <v>2</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>9</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>88.3</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>6</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>16</v>
-      </c>
-      <c r="CD19" t="n">
-        <v>3</v>
-      </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>0</v>
       </c>
       <c r="CT19" t="n">
         <v>2</v>
       </c>
       <c r="CU19" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="CV19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="CW19" t="n">
         <v>0</v>
@@ -7382,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="CZ19" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="DA19" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="DB19" t="n">
-        <v>77.777777777778</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7400,19 +7402,19 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>232</v>
+        <v>380</v>
       </c>
       <c r="DG19" t="n">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="DH19" t="n">
         <v>2</v>
       </c>
       <c r="DI19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DJ19" t="n">
-        <v>2145599</v>
+        <v>2145651</v>
       </c>
       <c r="DK19" t="inlineStr">
         <is>
@@ -7434,317 +7436,317 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Leny Yoro</t>
+          <t>Luke Shaw</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1153315</v>
+        <v>190839</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6045454545455</v>
+        <v>6.6423076923077</v>
       </c>
       <c r="F20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
+        <v>26</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2271</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.4621</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1.42955015</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1725</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1156</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>87.24528301886799</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1325</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>613</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>543</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>47</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>49.473684210526</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>14.285714285714</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>74</v>
+      </c>
+      <c r="AS20" t="n">
         <v>12</v>
       </c>
-      <c r="H20" t="n">
-        <v>1174</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.6787</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.29046615</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>838</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
+      <c r="AT20" t="n">
+        <v>53</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>53.398058252427</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>66</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>53.658536585366</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>44</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>53.012048192771</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>261</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>34</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>172.7</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>26</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>169</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
         <v>3</v>
       </c>
-      <c r="AE20" t="n">
-        <v>593</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>88.244047619048</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>672</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>346</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>247</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ20" t="n">
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>3</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>77</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>38</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="CK20" t="n">
         <v>2</v>
       </c>
-      <c r="AR20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>52</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>57</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>57</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>27</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>52.941176470588</v>
-      </c>
-      <c r="BE20" t="n">
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>15</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>14</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>42</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>96</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>39</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>95</v>
+      </c>
+      <c r="DA20" t="n">
         <v>30</v>
       </c>
-      <c r="BF20" t="n">
-        <v>61.224489795918</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>101</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>24</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>145.3</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>22</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>79</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>5</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>5</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>35</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>15</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>21</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>43</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>19</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>58</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>14</v>
-      </c>
       <c r="DB20" t="n">
-        <v>58.333333333333</v>
+        <v>56.603773584906</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7756,19 +7758,19 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>380</v>
+        <v>683</v>
       </c>
       <c r="DG20" t="n">
-        <v>292</v>
+        <v>642</v>
       </c>
       <c r="DH20" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="DI20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="DJ20" t="n">
-        <v>2145651</v>
+        <v>2145633</v>
       </c>
       <c r="DK20" t="inlineStr">
         <is>
@@ -7790,221 +7792,221 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Luke Shaw</t>
+          <t>Ayden Heaven</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>190839</v>
+        <v>1445799</v>
       </c>
       <c r="E21" t="n">
-        <v>6.6423076923077</v>
+        <v>6.82</v>
       </c>
       <c r="F21" t="n">
+        <v>11</v>
+      </c>
+      <c r="G21" t="n">
+        <v>8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>645</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.3454</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.16791657</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>461</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>325</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>90.529247910864</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>359</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>240</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>26</v>
       </c>
-      <c r="G21" t="n">
-        <v>26</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2271</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.4621</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="AK21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>57.894736842105</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="n">
+      <c r="AT21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>67.213114754098</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>24</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>70.58823529411799</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>62.962962962963</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>39</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>34</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
         <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.42955015</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1725</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1156</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>87.24528301886799</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1325</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>613</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>543</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>47</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>49.473684210526</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>14.285714285714</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>53</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>74</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>53</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>53.398058252427</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>66</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>53.658536585366</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>44</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>53.012048192771</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>261</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>34</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>7</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>4</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO21" t="n">
-        <v>34</v>
-      </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>172.7</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>26</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>169</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8019,19 +8021,19 @@
         <v>3</v>
       </c>
       <c r="CA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CC21" t="n">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="CD21" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="CE21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF21" t="n">
         <v>0</v>
@@ -8046,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="CK21" t="n">
         <v>2</v>
@@ -8070,19 +8072,19 @@
         <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="CS21" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="CT21" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="CU21" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="CV21" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8094,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="DA21" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="DB21" t="n">
-        <v>56.603773584906</v>
+        <v>56.25</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8112,19 +8114,19 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>683</v>
+        <v>251</v>
       </c>
       <c r="DG21" t="n">
-        <v>642</v>
+        <v>108</v>
       </c>
       <c r="DH21" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="DI21" t="n">
         <v>6</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2145633</v>
+        <v>2169604</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
@@ -8146,23 +8148,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ayden Heaven</t>
+          <t>Tyrell Malacia</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1445799</v>
+        <v>825839</v>
       </c>
       <c r="E22" t="n">
-        <v>6.82</v>
+        <v>6.7</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>645</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8170,20 +8172,18 @@
       <c r="J22" t="n">
         <v>0</v>
       </c>
-      <c r="K22" t="n">
-        <v>0.3454</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -8216,43 +8216,43 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.16791657</v>
+        <v>7.92e-06</v>
       </c>
       <c r="AB22" t="n">
-        <v>461</v>
+        <v>4</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG22" t="n">
         <v>2</v>
       </c>
-      <c r="AE22" t="n">
-        <v>325</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>90.529247910864</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>359</v>
-      </c>
       <c r="AH22" t="n">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="AI22" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>57.894736842105</v>
+        <v>0</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8261,25 +8261,25 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
         <v>0</v>
@@ -8291,43 +8291,43 @@
         <v>0</v>
       </c>
       <c r="AY22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ22" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="BB22" t="n">
-        <v>67.213114754098</v>
+        <v>100</v>
       </c>
       <c r="BC22" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BD22" t="n">
-        <v>70.58823529411799</v>
+        <v>100</v>
       </c>
       <c r="BE22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF22" t="n">
-        <v>62.962962962963</v>
+        <v>0</v>
       </c>
       <c r="BG22" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="BH22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BJ22" t="n">
         <v>0</v>
       </c>
       <c r="BK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL22" t="n">
         <v>0</v>
@@ -8336,31 +8336,31 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO22" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>68.2</v>
+        <v>6.7</v>
       </c>
       <c r="BR22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -8372,22 +8372,22 @@
         <v>0</v>
       </c>
       <c r="BZ22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA22" t="n">
         <v>0</v>
       </c>
       <c r="CB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="CD22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF22" t="n">
         <v>0</v>
@@ -8402,10 +8402,10 @@
         <v>0</v>
       </c>
       <c r="CJ22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CK22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL22" t="n">
         <v>0</v>
@@ -8426,19 +8426,19 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CV22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CW22" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="DA22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="DB22" t="n">
-        <v>56.25</v>
+        <v>0</v>
       </c>
       <c r="DC22" t="n">
         <v>0</v>
@@ -8468,19 +8468,19 @@
         <v>0</v>
       </c>
       <c r="DF22" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="DG22" t="n">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="DH22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI22" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2169604</v>
+        <v>2550832</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8502,14 +8502,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tyrell Malacia</t>
+          <t>Tyler Fredricson</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>825839</v>
+        <v>1142182</v>
       </c>
       <c r="E23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -8572,11 +8572,9 @@
       <c r="Z23" t="n">
         <v>0</v>
       </c>
-      <c r="AA23" t="n">
-        <v>7.92e-06</v>
-      </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -8585,53 +8583,53 @@
         <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
         <v>2</v>
       </c>
-      <c r="AH23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>1</v>
-      </c>
       <c r="AU23" t="n">
         <v>0</v>
       </c>
@@ -8651,16 +8649,16 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BE23" t="n">
         <v>0</v>
@@ -8699,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="BR23" t="n">
         <v>1</v>
@@ -8735,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="CC23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD23" t="n">
         <v>0</v>
@@ -8822,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG23" t="n">
         <v>1</v>
@@ -8834,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="DJ23" t="n">
-        <v>2550832</v>
+        <v>2550835</v>
       </c>
       <c r="DK23" t="inlineStr">
         <is>
@@ -8856,23 +8854,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tyler Fredricson</t>
+          <t>Senne Lammens</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1142182</v>
+        <v>964753</v>
       </c>
       <c r="E24" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>1800</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -8926,204 +8924,206 @@
       <c r="Z24" t="n">
         <v>0</v>
       </c>
-      <c r="AA24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>0.02783502</v>
+      </c>
       <c r="AB24" t="n">
+        <v>719</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>333</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>56.923076923077</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>585</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>229</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>104</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>121</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>32.702702702703</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>136</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>260</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>44</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>138</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>252</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>47</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>16</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>31</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="CK24" t="n">
         <v>3</v>
       </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="BR24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK24" t="n">
-        <v>0</v>
-      </c>
       <c r="CL24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CM24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9156,13 +9156,13 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>1</v>
+        <v>370</v>
       </c>
       <c r="DA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="DC24" t="n">
         <v>0</v>
@@ -9171,29 +9171,31 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DF24" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="DG24" t="n">
-        <v>1</v>
+        <v>318</v>
       </c>
       <c r="DH24" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
       </c>
       <c r="DJ24" t="n">
-        <v>2550835</v>
+        <v>2340636</v>
       </c>
       <c r="DK24" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL24" t="inlineStr"/>
+      <c r="DL24" t="n">
+        <v>2.7273</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9208,23 +9210,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Senne Lammens</t>
+          <t>Altay Bayındır</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>964753</v>
+        <v>815890</v>
       </c>
       <c r="E25" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H25" t="n">
-        <v>1800</v>
+        <v>540</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -9279,40 +9281,40 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02783502</v>
+        <v>0.04160964</v>
       </c>
       <c r="AB25" t="n">
-        <v>719</v>
+        <v>225</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="n">
-        <v>56.923076923077</v>
+        <v>60.45197740113</v>
       </c>
       <c r="AG25" t="n">
-        <v>585</v>
+        <v>177</v>
       </c>
       <c r="AH25" t="n">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="n">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="AL25" t="n">
-        <v>32.702702702703</v>
+        <v>31</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9324,19 +9326,19 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>136</v>
+        <v>39</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -9345,202 +9347,202 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" t="n">
         <v>0</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB25" t="n">
-        <v>100</v>
+        <v>83.333333333333</v>
       </c>
       <c r="BC25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="BE25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BF25" t="n">
         <v>100</v>
       </c>
       <c r="BG25" t="n">
-        <v>260</v>
+        <v>72</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
       </c>
       <c r="BI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>11</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>70</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>11</v>
+      </c>
+      <c r="CI25" t="n">
         <v>2</v>
       </c>
-      <c r="BJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>44</v>
-      </c>
-      <c r="BN25" t="n">
+      <c r="CJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO25" t="n">
         <v>4</v>
       </c>
-      <c r="BO25" t="n">
-        <v>26</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>138</v>
-      </c>
-      <c r="BR25" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>252</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC25" t="n">
-        <v>47</v>
-      </c>
-      <c r="CD25" t="n">
+      <c r="CP25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>100</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="DF25" t="n">
+        <v>91</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>86</v>
+      </c>
+      <c r="DH25" t="n">
         <v>16</v>
       </c>
-      <c r="CE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG25" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH25" t="n">
-        <v>31</v>
-      </c>
-      <c r="CI25" t="n">
-        <v>13</v>
-      </c>
-      <c r="CJ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="CK25" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL25" t="n">
-        <v>8</v>
-      </c>
-      <c r="CM25" t="n">
-        <v>8</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>8</v>
-      </c>
-      <c r="CO25" t="n">
-        <v>16</v>
-      </c>
-      <c r="CP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="n">
-        <v>370</v>
-      </c>
-      <c r="DA25" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB25" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE25" t="n">
-        <v>8</v>
-      </c>
-      <c r="DF25" t="n">
-        <v>267</v>
-      </c>
-      <c r="DG25" t="n">
-        <v>318</v>
-      </c>
-      <c r="DH25" t="n">
-        <v>97</v>
-      </c>
       <c r="DI25" t="n">
         <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>2340636</v>
+        <v>2145623</v>
       </c>
       <c r="DK25" t="inlineStr">
         <is>
@@ -9548,362 +9550,6 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>2.7273</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Premier_League</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Manchester United</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Altay Bayındır</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>815890</v>
-      </c>
-      <c r="E26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
-      </c>
-      <c r="G26" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>540</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.04160964</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>225</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>107</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>60.45197740113</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>177</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>82</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>31</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>39</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>83.333333333333</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>4</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>80</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>72</v>
-      </c>
-      <c r="BH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI26" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM26" t="n">
-        <v>13</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO26" t="n">
-        <v>11</v>
-      </c>
-      <c r="BP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ26" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="BR26" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>70</v>
-      </c>
-      <c r="BU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC26" t="n">
-        <v>10</v>
-      </c>
-      <c r="CD26" t="n">
-        <v>8</v>
-      </c>
-      <c r="CE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH26" t="n">
-        <v>11</v>
-      </c>
-      <c r="CI26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CJ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="CK26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN26" t="n">
-        <v>2</v>
-      </c>
-      <c r="CO26" t="n">
-        <v>4</v>
-      </c>
-      <c r="CP26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ26" t="n">
-        <v>100</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE26" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF26" t="n">
-        <v>91</v>
-      </c>
-      <c r="DG26" t="n">
-        <v>86</v>
-      </c>
-      <c r="DH26" t="n">
-        <v>16</v>
-      </c>
-      <c r="DI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ26" t="n">
-        <v>2145623</v>
-      </c>
-      <c r="DK26" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL26" t="n">
         <v>-0.8378</v>
       </c>
     </row>
